--- a/ServiceData.xlsx
+++ b/ServiceData.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2782C5DE-3C2B-4279-8076-FCF25780E059}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F1C466C5-4FE7-4746-8A40-C9109738DE51}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Make of Cars" sheetId="1" r:id="rId1"/>
     <sheet name="Service Departments" sheetId="2" r:id="rId2"/>
     <sheet name="Services&amp;Prices" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="zipcode" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="61">
   <si>
     <t>Acura</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Detailing</t>
+  </si>
+  <si>
+    <t>zipcode</t>
   </si>
 </sst>
 </file>
@@ -915,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D72EB-B25C-4A55-84A5-562E06494CA1}">
   <dimension ref="A1:G433"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8318,12 +8321,143 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5B466E-32DC-4FE9-A883-D2B0F4D9CB5E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>19020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>19028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>19036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>19044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>19052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>19060</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>19068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>19076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>19084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>19092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>19108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>19116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>19124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>19132</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>